--- a/YAML-CREATION/LLBMS/llbms_hli.xlsx
+++ b/YAML-CREATION/LLBMS/llbms_hli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\YAML-CREATION\LLBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBA66B8-7B7B-4A7E-818D-9A7E65C5B4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AC9271-8AD8-45C8-A48A-B19876F6607E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="893">
   <si>
     <t>dbo.section</t>
   </si>
@@ -2697,6 +2697,21 @@
   </si>
   <si>
     <t>GATEWAYS/PASSTHROUGH</t>
+  </si>
+  <si>
+    <t>dgtk_02_percentage_sensor</t>
+  </si>
+  <si>
+    <t>dgtk_03_percentage_sensor</t>
+  </si>
+  <si>
+    <t>dgtk_04_percentage_sensor</t>
+  </si>
+  <si>
+    <t>dgtk_05_percentage_sensor</t>
+  </si>
+  <si>
+    <t>dgtk_06_percentage_sensor</t>
   </si>
 </sst>
 </file>
@@ -3344,7 +3359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
@@ -5389,9 +5404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1414"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D390" sqref="D390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12148,7 +12163,7 @@
         <v>59</v>
       </c>
       <c r="B398" t="s">
-        <v>466</v>
+        <v>888</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>420</v>
@@ -12165,7 +12180,7 @@
         <v>59</v>
       </c>
       <c r="B399" t="s">
-        <v>466</v>
+        <v>889</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>420</v>
@@ -12182,7 +12197,7 @@
         <v>59</v>
       </c>
       <c r="B400" t="s">
-        <v>466</v>
+        <v>890</v>
       </c>
       <c r="C400" s="7" t="s">
         <v>420</v>
@@ -12199,7 +12214,7 @@
         <v>59</v>
       </c>
       <c r="B401" t="s">
-        <v>466</v>
+        <v>891</v>
       </c>
       <c r="C401" s="7" t="s">
         <v>420</v>
@@ -12216,7 +12231,7 @@
         <v>59</v>
       </c>
       <c r="B402" t="s">
-        <v>466</v>
+        <v>892</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>420</v>
